--- a/biology/Zoologie/Jacques_Berlioz_(zoologiste)/Jacques_Berlioz_(zoologiste).xlsx
+++ b/biology/Zoologie/Jacques_Berlioz_(zoologiste)/Jacques_Berlioz_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Berlioz est un zoologiste français, né le 9 décembre 1891 à Paris et mort dans la même ville le 21 décembre 1975[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Berlioz est un zoologiste français, né le 9 décembre 1891 à Paris et mort dans la même ville le 21 décembre 1975.
 Il rejoint le Muséum national d'histoire naturelle en 1912. Il devient, en 1949, conservateur des mammifères et des oiseaux, fonction qu’il conserve jusqu’à son départ à la retraite en 1962. Vice-président de la Ligue pour la Protection des Oiseaux LPO en 1966.
 </t>
         </is>
